--- a/data/Angel RodriguezT2-2024.xlsx
+++ b/data/Angel RodriguezT2-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>4093.76282305</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -874,6 +876,7 @@
         <v>0.09228798000000001</v>
       </c>
     </row>
+    <row r="28"/>
     <row r="29">
       <c r="D29" s="6" t="inlineStr">
         <is>
@@ -899,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -912,6 +915,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -919,6 +924,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -926,6 +932,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1334,6 +1341,7 @@
         <v>0.05426683</v>
       </c>
     </row>
+    <row r="39"/>
     <row r="40">
       <c r="C40" s="6" t="inlineStr">
         <is>
@@ -1359,7 +1367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,6 +1380,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1379,6 +1389,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1386,6 +1397,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1651,6 +1663,7 @@
         <v>0.00112308</v>
       </c>
     </row>
+    <row r="28"/>
     <row r="29">
       <c r="C29" s="6" t="inlineStr">
         <is>

--- a/data/Angel RodriguezT2-2024.xlsx
+++ b/data/Angel RodriguezT2-2024.xlsx
@@ -67,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -88,6 +88,8 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -452,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="C3:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,8 +468,6 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -475,7 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -483,7 +482,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -537,6 +535,8 @@
       <c r="F10" s="11" t="n">
         <v>4093.76282305</v>
       </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -876,7 +876,6 @@
         <v>0.09228798000000001</v>
       </c>
     </row>
-    <row r="28"/>
     <row r="29">
       <c r="D29" s="6" t="inlineStr">
         <is>
@@ -902,7 +901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="C3:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,8 +914,6 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -924,7 +921,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -932,7 +928,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1341,7 +1336,6 @@
         <v>0.05426683</v>
       </c>
     </row>
-    <row r="39"/>
     <row r="40">
       <c r="C40" s="6" t="inlineStr">
         <is>
@@ -1367,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="C3:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1380,8 +1374,6 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1389,7 +1381,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1397,7 +1388,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1663,7 +1653,6 @@
         <v>0.00112308</v>
       </c>
     </row>
-    <row r="28"/>
     <row r="29">
       <c r="C29" s="6" t="inlineStr">
         <is>
